--- a/Notes-HT-Alok.xlsx
+++ b/Notes-HT-Alok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aloksingh/Desktop/IIMB-DSAI-2025-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC44151F-A30B-824C-8993-E069694F58E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311FB705-03F6-6544-984C-CBB1ACC19F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D7F3C489-2325-AB46-9A4A-1FD47A5458B3}"/>
   </bookViews>
@@ -2032,16 +2032,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3586804</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53946</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>617707</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>94478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2071,8 +2071,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10490199" y="1320800"/>
-          <a:ext cx="5003801" cy="2832100"/>
+          <a:off x="13517123" y="1155429"/>
+          <a:ext cx="5002180" cy="2816602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2093,16 +2093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>577608</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>94499</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>982927</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>108010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373499</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>131179</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1413818</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2125,8 +2125,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9723938" y="4090921"/>
-          <a:ext cx="7788968" cy="1027047"/>
+          <a:off x="9427076" y="3985563"/>
+          <a:ext cx="7767168" cy="1049978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2590,7 +2590,7 @@
   <dimension ref="A1:O153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3275,7 +3275,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3934,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3736E273-A25C-4D4E-B447-8A78065C1726}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4735,7 +4735,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4956,7 +4956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43242E50-555C-E74B-9E64-D4B6679847DE}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="111" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -22708,7 +22710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A221AF7-DAD1-7E45-8C55-990267D8F66E}">
   <dimension ref="A1:AG501"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -31702,7 +31704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592FD1DE-2269-6F46-94BD-48D011A1CD06}">
   <dimension ref="A1:AC501"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
